--- a/TestCPy/bin/Debug/netcoreapp3.1/Players/Orlando_Magic__.xlsx
+++ b/TestCPy/bin/Debug/netcoreapp3.1/Players/Orlando_Magic__.xlsx
@@ -588,79 +588,79 @@
         <v>20</v>
       </c>
       <c r="D2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E2" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F2" t="n">
-        <v>790</v>
+        <v>823</v>
       </c>
       <c r="G2" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="H2" t="n">
-        <v>300</v>
+        <v>310</v>
       </c>
       <c r="I2" t="n">
-        <v>0.44</v>
+        <v>0.442</v>
       </c>
       <c r="J2" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K2" t="n">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L2" t="n">
-        <v>0.365</v>
+        <v>0.378</v>
       </c>
       <c r="M2" t="n">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="N2" t="n">
-        <v>204</v>
+        <v>212</v>
       </c>
       <c r="O2" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="P2" t="n">
-        <v>0.498</v>
+        <v>0.502</v>
       </c>
       <c r="Q2" t="n">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="R2" t="n">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="S2" t="n">
-        <v>0.792</v>
+        <v>0.8169999999999999</v>
       </c>
       <c r="T2" t="n">
         <v>34</v>
       </c>
       <c r="U2" t="n">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="V2" t="n">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="W2" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="X2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y2" t="n">
         <v>12</v>
       </c>
       <c r="Z2" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AA2" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="AB2" t="n">
-        <v>341</v>
+        <v>360</v>
       </c>
     </row>
     <row r="3">
@@ -676,79 +676,79 @@
         <v>22</v>
       </c>
       <c r="D3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F3" t="n">
-        <v>722</v>
+        <v>758</v>
       </c>
       <c r="G3" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H3" t="n">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="I3" t="n">
-        <v>0.516</v>
+        <v>0.515</v>
       </c>
       <c r="J3" t="n">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K3" t="n">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L3" t="n">
-        <v>0.357</v>
+        <v>0.356</v>
       </c>
       <c r="M3" t="n">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="N3" t="n">
-        <v>150</v>
+        <v>161</v>
       </c>
       <c r="O3" t="n">
-        <v>0.62</v>
+        <v>0.615</v>
       </c>
       <c r="P3" t="n">
-        <v>0.587</v>
+        <v>0.584</v>
       </c>
       <c r="Q3" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="R3" t="n">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="S3" t="n">
-        <v>0.704</v>
+        <v>0.7</v>
       </c>
       <c r="T3" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="U3" t="n">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="V3" t="n">
-        <v>247</v>
+        <v>257</v>
       </c>
       <c r="W3" t="n">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="X3" t="n">
         <v>17</v>
       </c>
       <c r="Y3" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="Z3" t="n">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="AA3" t="n">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="AB3" t="n">
-        <v>329</v>
+        <v>348</v>
       </c>
     </row>
     <row r="4">
@@ -764,43 +764,43 @@
         <v>23</v>
       </c>
       <c r="D4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E4" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F4" t="n">
-        <v>704</v>
+        <v>732</v>
       </c>
       <c r="G4" t="n">
+        <v>107</v>
+      </c>
+      <c r="H4" t="n">
+        <v>232</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0.461</v>
+      </c>
+      <c r="J4" t="n">
+        <v>34</v>
+      </c>
+      <c r="K4" t="n">
         <v>101</v>
       </c>
-      <c r="H4" t="n">
-        <v>221</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0.457</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32</v>
-      </c>
-      <c r="K4" t="n">
-        <v>98</v>
-      </c>
       <c r="L4" t="n">
-        <v>0.327</v>
+        <v>0.337</v>
       </c>
       <c r="M4" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="N4" t="n">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="O4" t="n">
-        <v>0.5610000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="P4" t="n">
-        <v>0.529</v>
+        <v>0.534</v>
       </c>
       <c r="Q4" t="n">
         <v>18</v>
@@ -812,31 +812,31 @@
         <v>0.72</v>
       </c>
       <c r="T4" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="U4" t="n">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="V4" t="n">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="W4" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="X4" t="n">
         <v>20</v>
       </c>
       <c r="Y4" t="n">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="Z4" t="n">
         <v>36</v>
       </c>
       <c r="AA4" t="n">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="AB4" t="n">
-        <v>252</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5">
@@ -852,79 +852,79 @@
         <v>21</v>
       </c>
       <c r="D5" t="n">
+        <v>20</v>
+      </c>
+      <c r="E5" t="n">
+        <v>20</v>
+      </c>
+      <c r="F5" t="n">
+        <v>681</v>
+      </c>
+      <c r="G5" t="n">
+        <v>142</v>
+      </c>
+      <c r="H5" t="n">
+        <v>331</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0.429</v>
+      </c>
+      <c r="J5" t="n">
+        <v>55</v>
+      </c>
+      <c r="K5" t="n">
+        <v>151</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0.364</v>
+      </c>
+      <c r="M5" t="n">
+        <v>87</v>
+      </c>
+      <c r="N5" t="n">
+        <v>180</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0.483</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>67</v>
+      </c>
+      <c r="R5" t="n">
+        <v>77</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="T5" t="n">
+        <v>10</v>
+      </c>
+      <c r="U5" t="n">
+        <v>113</v>
+      </c>
+      <c r="V5" t="n">
+        <v>123</v>
+      </c>
+      <c r="W5" t="n">
+        <v>117</v>
+      </c>
+      <c r="X5" t="n">
         <v>19</v>
-      </c>
-      <c r="E5" t="n">
-        <v>19</v>
-      </c>
-      <c r="F5" t="n">
-        <v>646</v>
-      </c>
-      <c r="G5" t="n">
-        <v>130</v>
-      </c>
-      <c r="H5" t="n">
-        <v>309</v>
-      </c>
-      <c r="I5" t="n">
-        <v>0.421</v>
-      </c>
-      <c r="J5" t="n">
-        <v>49</v>
-      </c>
-      <c r="K5" t="n">
-        <v>142</v>
-      </c>
-      <c r="L5" t="n">
-        <v>0.345</v>
-      </c>
-      <c r="M5" t="n">
-        <v>81</v>
-      </c>
-      <c r="N5" t="n">
-        <v>167</v>
-      </c>
-      <c r="O5" t="n">
-        <v>0.485</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="Q5" t="n">
-        <v>64</v>
-      </c>
-      <c r="R5" t="n">
-        <v>73</v>
-      </c>
-      <c r="S5" t="n">
-        <v>0.877</v>
-      </c>
-      <c r="T5" t="n">
-        <v>9</v>
-      </c>
-      <c r="U5" t="n">
-        <v>110</v>
-      </c>
-      <c r="V5" t="n">
-        <v>119</v>
-      </c>
-      <c r="W5" t="n">
-        <v>109</v>
-      </c>
-      <c r="X5" t="n">
-        <v>18</v>
       </c>
       <c r="Y5" t="n">
         <v>4</v>
       </c>
       <c r="Z5" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AA5" t="n">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="AB5" t="n">
-        <v>373</v>
+        <v>406</v>
       </c>
     </row>
     <row r="6">
@@ -940,64 +940,64 @@
         <v>30</v>
       </c>
       <c r="D6" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>589</v>
+        <v>624</v>
       </c>
       <c r="G6" t="n">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="H6" t="n">
-        <v>212</v>
+        <v>225</v>
       </c>
       <c r="I6" t="n">
-        <v>0.392</v>
+        <v>0.396</v>
       </c>
       <c r="J6" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="K6" t="n">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="L6" t="n">
-        <v>0.296</v>
+        <v>0.302</v>
       </c>
       <c r="M6" t="n">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="N6" t="n">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="O6" t="n">
-        <v>0.49</v>
+        <v>0.495</v>
       </c>
       <c r="P6" t="n">
-        <v>0.467</v>
+        <v>0.473</v>
       </c>
       <c r="Q6" t="n">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="R6" t="n">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S6" t="n">
-        <v>0.8</v>
+        <v>0.8080000000000001</v>
       </c>
       <c r="T6" t="n">
         <v>6</v>
       </c>
       <c r="U6" t="n">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="V6" t="n">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="W6" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="X6" t="n">
         <v>12</v>
@@ -1006,13 +1006,13 @@
         <v>4</v>
       </c>
       <c r="Z6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA6" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AB6" t="n">
-        <v>238</v>
+        <v>255</v>
       </c>
     </row>
     <row r="7">
@@ -1116,43 +1116,43 @@
         <v>27</v>
       </c>
       <c r="D8" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F8" t="n">
-        <v>481</v>
+        <v>512</v>
       </c>
       <c r="G8" t="n">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="H8" t="n">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="I8" t="n">
-        <v>0.41</v>
+        <v>0.424</v>
       </c>
       <c r="J8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="K8" t="n">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="L8" t="n">
-        <v>0.281</v>
+        <v>0.286</v>
       </c>
       <c r="M8" t="n">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="N8" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="O8" t="n">
-        <v>0.52</v>
+        <v>0.543</v>
       </c>
       <c r="P8" t="n">
-        <v>0.475</v>
+        <v>0.49</v>
       </c>
       <c r="Q8" t="n">
         <v>11</v>
@@ -1164,16 +1164,16 @@
         <v>0.733</v>
       </c>
       <c r="T8" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="U8" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="V8" t="n">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="W8" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="X8" t="n">
         <v>14</v>
@@ -1182,13 +1182,13 @@
         <v>2</v>
       </c>
       <c r="Z8" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AA8" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AB8" t="n">
-        <v>143</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9">
@@ -1204,64 +1204,64 @@
         <v>20</v>
       </c>
       <c r="D9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E9" t="n">
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="G9" t="n">
         <v>67</v>
       </c>
       <c r="H9" t="n">
-        <v>159</v>
+        <v>165</v>
       </c>
       <c r="I9" t="n">
-        <v>0.421</v>
+        <v>0.406</v>
       </c>
       <c r="J9" t="n">
         <v>26</v>
       </c>
       <c r="K9" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="L9" t="n">
-        <v>0.406</v>
+        <v>0.4</v>
       </c>
       <c r="M9" t="n">
         <v>41</v>
       </c>
       <c r="N9" t="n">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="O9" t="n">
-        <v>0.432</v>
+        <v>0.41</v>
       </c>
       <c r="P9" t="n">
-        <v>0.503</v>
+        <v>0.485</v>
       </c>
       <c r="Q9" t="n">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R9" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="S9" t="n">
-        <v>0.593</v>
+        <v>0.589</v>
       </c>
       <c r="T9" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="U9" t="n">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="V9" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="W9" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="X9" t="n">
         <v>13</v>
@@ -1273,10 +1273,10 @@
         <v>42</v>
       </c>
       <c r="AA9" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AB9" t="n">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="10">
@@ -1292,43 +1292,43 @@
         <v>23</v>
       </c>
       <c r="D10" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>404</v>
+        <v>418</v>
       </c>
       <c r="G10" t="n">
         <v>50</v>
       </c>
       <c r="H10" t="n">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="I10" t="n">
-        <v>0.382</v>
+        <v>0.373</v>
       </c>
       <c r="J10" t="n">
         <v>14</v>
       </c>
       <c r="K10" t="n">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L10" t="n">
-        <v>0.233</v>
+        <v>0.226</v>
       </c>
       <c r="M10" t="n">
         <v>36</v>
       </c>
       <c r="N10" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="O10" t="n">
-        <v>0.507</v>
+        <v>0.5</v>
       </c>
       <c r="P10" t="n">
-        <v>0.435</v>
+        <v>0.425</v>
       </c>
       <c r="Q10" t="n">
         <v>23</v>
@@ -1340,16 +1340,16 @@
         <v>0.852</v>
       </c>
       <c r="T10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="U10" t="n">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="V10" t="n">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="W10" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="X10" t="n">
         <v>14</v>
@@ -1358,7 +1358,7 @@
         <v>6</v>
       </c>
       <c r="Z10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AA10" t="n">
         <v>25</v>
@@ -1380,7 +1380,7 @@
         <v>24</v>
       </c>
       <c r="D11" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1461,86 +1461,86 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Mychal Mulder</t>
+          <t>Robin Lopez</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="E12" t="n">
         <v>1</v>
       </c>
       <c r="F12" t="n">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="G12" t="n">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H12" t="n">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="I12" t="n">
-        <v>0.265</v>
+        <v>0.628</v>
       </c>
       <c r="J12" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="L12" t="n">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="N12" t="n">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="O12" t="n">
-        <v>0.2</v>
+        <v>0.643</v>
       </c>
       <c r="P12" t="n">
-        <v>0.367</v>
+        <v>0.628</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="R12" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="S12" t="n">
-        <v>1</v>
+        <v>0.611</v>
       </c>
       <c r="T12" t="n">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="U12" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="V12" t="n">
+        <v>26</v>
+      </c>
+      <c r="W12" t="n">
+        <v>9</v>
+      </c>
+      <c r="X12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z12" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA12" t="n">
         <v>14</v>
       </c>
-      <c r="W12" t="n">
-        <v>1</v>
-      </c>
-      <c r="X12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>1</v>
-      </c>
-      <c r="Z12" t="n">
-        <v>4</v>
-      </c>
-      <c r="AA12" t="n">
-        <v>8</v>
-      </c>
       <c r="AB12" t="n">
-        <v>38</v>
+        <v>65</v>
       </c>
     </row>
     <row r="13">
@@ -1549,86 +1549,86 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Robin Lopez</t>
+          <t>Mychal Mulder</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E13" t="n">
         <v>1</v>
       </c>
       <c r="F13" t="n">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="G13" t="n">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="H13" t="n">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="I13" t="n">
-        <v>0.595</v>
+        <v>0.265</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="K13" t="n">
+        <v>34</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0.294</v>
+      </c>
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="n">
+        <v>15</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0.367</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>2</v>
+      </c>
+      <c r="R13" t="n">
+        <v>2</v>
+      </c>
+      <c r="S13" t="n">
         <v>1</v>
       </c>
-      <c r="L13" t="n">
-        <v>0</v>
-      </c>
-      <c r="M13" t="n">
-        <v>22</v>
-      </c>
-      <c r="N13" t="n">
-        <v>36</v>
-      </c>
-      <c r="O13" t="n">
-        <v>0.611</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0.595</v>
-      </c>
-      <c r="Q13" t="n">
-        <v>10</v>
-      </c>
-      <c r="R13" t="n">
-        <v>16</v>
-      </c>
-      <c r="S13" t="n">
-        <v>0.625</v>
-      </c>
       <c r="T13" t="n">
+        <v>2</v>
+      </c>
+      <c r="U13" t="n">
         <v>12</v>
       </c>
-      <c r="U13" t="n">
-        <v>9</v>
-      </c>
       <c r="V13" t="n">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="W13" t="n">
+        <v>1</v>
+      </c>
+      <c r="X13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y13" t="n">
+        <v>1</v>
+      </c>
+      <c r="Z13" t="n">
+        <v>4</v>
+      </c>
+      <c r="AA13" t="n">
         <v>8</v>
       </c>
-      <c r="X13" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z13" t="n">
-        <v>9</v>
-      </c>
-      <c r="AA13" t="n">
-        <v>14</v>
-      </c>
       <c r="AB13" t="n">
-        <v>54</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14">
@@ -1724,77 +1724,77 @@
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="inlineStr"/>
       <c r="D15" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="n">
-        <v>6000</v>
+        <v>6240</v>
       </c>
       <c r="G15" t="n">
-        <v>921</v>
+        <v>969</v>
       </c>
       <c r="H15" t="n">
-        <v>2191</v>
+        <v>2288</v>
       </c>
       <c r="I15" t="n">
-        <v>0.42</v>
+        <v>0.424</v>
       </c>
       <c r="J15" t="n">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="K15" t="n">
-        <v>949</v>
+        <v>983</v>
       </c>
       <c r="L15" t="n">
-        <v>0.319</v>
+        <v>0.325</v>
       </c>
       <c r="M15" t="n">
-        <v>618</v>
+        <v>650</v>
       </c>
       <c r="N15" t="n">
-        <v>1242</v>
+        <v>1305</v>
       </c>
       <c r="O15" t="n">
         <v>0.498</v>
       </c>
       <c r="P15" t="n">
-        <v>0.49</v>
+        <v>0.493</v>
       </c>
       <c r="Q15" t="n">
-        <v>365</v>
+        <v>383</v>
       </c>
       <c r="R15" t="n">
-        <v>482</v>
+        <v>505</v>
       </c>
       <c r="S15" t="n">
-        <v>0.757</v>
+        <v>0.758</v>
       </c>
       <c r="T15" t="n">
-        <v>235</v>
+        <v>252</v>
       </c>
       <c r="U15" t="n">
-        <v>878</v>
+        <v>904</v>
       </c>
       <c r="V15" t="n">
-        <v>1113</v>
+        <v>1156</v>
       </c>
       <c r="W15" t="n">
-        <v>542</v>
+        <v>571</v>
       </c>
       <c r="X15" t="n">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Y15" t="n">
-        <v>120</v>
+        <v>125</v>
       </c>
       <c r="Z15" t="n">
-        <v>387</v>
+        <v>400</v>
       </c>
       <c r="AA15" t="n">
-        <v>498</v>
+        <v>516</v>
       </c>
       <c r="AB15" t="n">
-        <v>2510</v>
+        <v>2640</v>
       </c>
     </row>
   </sheetData>
